--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_land_own_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_land_own_update.xlsx
@@ -752,7 +752,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
